--- a/biology/Zoologie/Eublemma/Eublemma.xlsx
+++ b/biology/Zoologie/Eublemma/Eublemma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eublemma est un genre de papillons de nuit, de la famille des Erebidae (sous-famille des Acontiinae). Il a été décrit par Jakob Hübner en 1829.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a précédemment été classé dans la sous-famille des Eublemminae (famille des Erebidae) ou dans la sous-famille des Eustrotiinae (famille des Noctuidae)[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a précédemment été classé dans la sous-famille des Eublemminae (famille des Erebidae) ou dans la sous-famille des Eustrotiinae (famille des Noctuidae),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les palpes de ces papillons partent du sommet de la tête, sont tournés vers le haut et ont une courte troisième articulation. Chez le mâle les antennes sont finement ciliées. Le thorax et l'abdomen sont finement écaillés. Les pattes sont courtes, et les tibias moyennement poilus. Le sommet des ailes antérieures est légèrement déprimé. Nervures 6 et 7 de l'angle de la cellule et nervures 8 à 10 traquées de l'angle avant. Ailes postérieures avec nervures 3,4 et 6,7 sous les angles de la cellule.[À traduire] La chenille a deux paires de fausses pattes[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les palpes de ces papillons partent du sommet de la tête, sont tournés vers le haut et ont une courte troisième articulation. Chez le mâle les antennes sont finement ciliées. Le thorax et l'abdomen sont finement écaillés. Les pattes sont courtes, et les tibias moyennement poilus. Le sommet des ailes antérieures est légèrement déprimé. Nervures 6 et 7 de l'angle de la cellule et nervures 8 à 10 traquées de l'angle avant. Ailes postérieures avec nervures 3,4 et 6,7 sous les angles de la cellule.[À traduire] La chenille a deux paires de fausses pattes.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Eublemma acarodes Swinhoe, 1907
@@ -599,9 +617,9 @@
 Eublemma alexi Fibiger &amp; Hacker, 2002 Togo, Burkina Faso, Nigeria, Arabie Saoudite, Soudan, Ethiopie, Malawi, Tanzanie, Zimbabwe, Namibie, Afrique du Sud
 Eublemma aliena (Krüger, 1939) Libye
 Eublemma almaviva Berio, 1947
-Eublemma amabilis Moore, [1884] Sri Lanka
+Eublemma amabilis Moore,  Sri Lanka
 Eublemma amasina (Eversmann, 1842) sud de l'Oural, sud-est de la Sibérie, Japon
-Eublemma amoena (Hübner, [1803]) Afrique du Nord, Europe du Sud, Turquie, Transcaucasie, Caucase
+Eublemma amoena (Hübner, ) Afrique du Nord, Europe du Sud, Turquie, Transcaucasie, Caucase
 Eublemma amphidasys Turner, 1933 Australie (Queensland)
 Eublemma amydrosana Rebelle, 1947 Egypte
 Eublemme anachorèse Wallengren, 1863
@@ -648,7 +666,7 @@
 Eublemma brunneosa Bethune-Baker, 1911 Kenya
 Eublemma brygooi Viette, 1966
 Eublemma buettikeri Wiltshire, 1980 Arabie
-Eublemma bulla (Swinhoe, [1885]) Arabie, Soudan, Pakistan, Inde (Maharashtra)
+Eublemma bulla (Swinhoe, ) Arabie, Soudan, Pakistan, Inde (Maharashtra)
 Eublemma caduca (Christoph, 1893)
 Eublemma caelestis (Brandt, 1938) Iran
 Eublemma cafrorum (Wallengren, 1860) Afrique du Sud, Namibie, Zimbabwe, Botswana, Mozambique
@@ -712,7 +730,7 @@
 Eublemma ernesti Rothschild, 1915
 Eublemma eupethecica Hampson, 1910
 Eublemma exanimis Hampson, 1918 Malawi
-Eublemma exigua (Walker, [1858]) Inde (Maharasthra), Cap-Vert, Sierra Leone, Ghana, Burkina Faso, Nigéria, Zaïre, Malawi, Ouganda, Yémen , Éthiopie, Somalie, Kenya, Tanzanie, Mozambique, Eswatini, Zimbabwe, Afrique du Sud, Angola, Madagascar, Comores
+Eublemma exigua (Walker, ) Inde (Maharasthra), Cap-Vert, Sierra Leone, Ghana, Burkina Faso, Nigéria, Zaïre, Malawi, Ouganda, Yémen , Éthiopie, Somalie, Kenya, Tanzanie, Mozambique, Eswatini, Zimbabwe, Afrique du Sud, Angola, Madagascar, Comores
 Eublemma faircloughi Holloway, 2009 Bornéo
 Eublemma faroulti Rothschild, 1911
 Eublemma fasciola (Saalmüller, 1891) Madagascar
@@ -748,10 +766,10 @@
 Eublemma gondwana Hacker, 2019 Namibie
 Eublemma goniogramma Hampson, 1910 Afrique du Sud, Namibie
 Eublemma gratiosa (Eversmann, 1854) Oural du sud ?
-Eublemma gratissima (Staudinger, [1892]) ouest du Kazakhstan, Turquie, Caucase, Transcaucasie, Moyen-Orient, Irak, Iran
+Eublemma gratissima (Staudinger, ) ouest du Kazakhstan, Turquie, Caucase, Transcaucasie, Moyen-Orient, Irak, Iran
 Eublemma griseofimbriata Gaede, 1935 Afrique du Sud, Namibie
 Eublemma guiera Bradley, 1969 Gambie, Sénégal, Côte d'Ivoire, Burkina Faso, Nigeria
-Eublemma hansa (Herrich-Schäffer, [1851]) sud de l'Oural, Turquie, Caucase, Transcaucasie, Iran
+Eublemma hansa (Herrich-Schäffer, ) sud de l'Oural, Turquie, Caucase, Transcaucasie, Iran
 Eublemma hemichiasma Hacker, 2019 Afrique du Sud, Namibie, Ethiopie
 Eublemma hemichiona Hampson, 1918 Malawi, Tanzanie
 Eublemma heterogramma (Mabille, 1881) Angola
@@ -800,13 +818,13 @@
 Eublemma loxographa Hacker &amp; Saldaitis, 2016 Sokotra
 Eublemma lozostropha Turner, 1902 Australie (Queensland)
 Eublemma lucanitis Hampson, 1910 Afrique du Sud
-Eublemma lutosa (Staudinger, [1892]) Syrie, Turquie
+Eublemma lutosa (Staudinger, ) Syrie, Turquie
 Eublemma macrocroca Hacker, 2019 Sierra Leone, Gambie, Côte d'Ivoire, Nigeria, Burkina Faso, Gabon
 Eublemma macrotephra Hacker, 2019 Côte d'Ivoire, Nigeria, Cameroun
 Eublemma madaphaea Hacker, 2019 Madagascar
 Eublemma manakhana Hacker &amp; Schreier, 2019 Yémen
 Eublemma maraschensis Osthelder, 1933
-Eublemma marginula (Herrich-Schäffer, [1851])
+Eublemma marginula (Herrich-Schäffer, )
 Eublemma marmaropa Meyrick, 1902 Australie (Queensland), Nouvelle-Guinée
 Eublemma marmorata Wileman &amp; West, 1929 Philippines, Bornéo
 Eublemma martini Holloway, 2009 Bornéo, Malaisie péninsulaire
@@ -868,13 +886,13 @@
 Eublemma olmii Berio, 1937
 Eublemma ornatula (Felder &amp; Rogenhofer, 1874) Kenya, Ouganda, Tanzanie, Zimbabwe, Afrique du Sud
 Eublemma orthogramma (Snellen, 1872) Sierra Leone, Togo, Côte d'Ivoire, Burkina Faso, Nigéria, Cameroun, Gabon, Zaïre, Tanzanie, Madagascar
-Eublemma ostrina (Hübner, [1808]) Mauritanie, Afrique du Nord, Europe du Sud, Moyen-Orient, Turquie, Caucase, Transcaucasie, Arabie, Ethiopie, Soudan, Niger – papillon marbré violet
+Eublemma ostrina (Hübner, ) Mauritanie, Afrique du Nord, Europe du Sud, Moyen-Orient, Turquie, Caucase, Transcaucasie, Arabie, Ethiopie, Soudan, Niger – papillon marbré violet
 Eublemma pallidula (Herrich-Schäffer, 1856) Turquie, Arménie, Chypre, Ukraine, Liban, Israël, Jordanie, Iran, Irak, Arabie, Kirghizistan, Turkménistan, Ouzbékistan
 Eublemma pallidulalis Hacker, 2019 Afrique du Sud, Namibie
 Eublemma pannonica Freyer, 1840
 Eublemma panonica (Freyer, 1840) sud de l'Oural
 Eublemma parallela (Freyer, 1842) sud de l'Oural, Turquie, Caucase, Transcaucasie, nord-ouest de l'Iran
-Eublemma parva (Hübner, [1808]) Mauritanie, Afrique du Nord, Europe du Sud, Europe centrale, Moyen-Orient, Turquie, Caucase, Transcaucasie, Irak, Iran, Afghanistan , Pakistan, Arabie, Soudan, Niger, nord-ouest de l'Inde, Australie – petit papillon marbré
+Eublemma parva (Hübner, ) Mauritanie, Afrique du Nord, Europe du Sud, Europe centrale, Moyen-Orient, Turquie, Caucase, Transcaucasie, Irak, Iran, Afghanistan , Pakistan, Arabie, Soudan, Niger, nord-ouest de l'Inde, Australie – petit papillon marbré
 Eublemma parvisi Berio, 1940
 Eublemma parvoides (Brandt, 1939) Iran, Oman
 Eublemma pendula de Joannis, 1928 Vietnam
@@ -894,7 +912,7 @@
 Eublemma poliochila Hacker, 2019 Afrique du Sud
 Eublemma poliochra Hacker, 2019 Éthiopie, Kenya, Tanzanie, Zimbabwe, Afrique du Sud, Angola, Gabon, Libéria, Sierra Leone, Madagascar
 Eublemma politzari Hacker, 2019 Burkina Faso
-Eublemma polygramma (Duponchel, [1842]) Afrique du Nord, Europe du Sud, Turquie, Chypre, Caucase, Transcaucasie, Moyen-Orient, Iran
+Eublemma polygramma (Duponchel, ) Afrique du Nord, Europe du Sud, Turquie, Chypre, Caucase, Transcaucasie, Moyen-Orient, Iran
 Eublemma popovi (Wiltshire, 1953) Perse
 Eublemma porphyrescens Hampson, 1914
 Eublemma porphyrina (Freyer, 1845) Sibérie sud-ouest
@@ -915,7 +933,7 @@
 Eublemma pulchra (Swinhoe, 1886) Inde (Madhya Pradesh)
 Eublemma pulverulenta (Warren &amp; Rothschild, 1905) Soudan
 Eublemma punctilinea Hampson, 1902 Afrique du Sud
-Eublemma pura (Hübner, [1813]) Afrique du Nord, Europe du Sud-Ouest
+Eublemma pura (Hübner, ) Afrique du Nord, Europe du Sud-Ouest
 Eublemma purinula Turati, 1934
 Eublemma purpurina (Denis &amp; Schiffermüller, 1775) Afrique du Nord, Europe centrale, Europe du Sud, Turquie, Caucase, Sibérie du sud-ouest
 Eublemma purulenta Turati, 1934
@@ -941,10 +959,10 @@
 Eublemma roseana (Moore, 1881) Inde, Bornéo, New Quinea, Queensland, Bismarcks, Oman
 Eublemma rosearcuata Holloway, 2009 Bornéo, Malaisie péninsulaire
 Eublemma rosecincta Hampson, 1910
-Eublemma roseonivea (Walker, [1863]) Bornéo, Malaisie péninsulaire
+Eublemma roseonivea (Walker, ) Bornéo, Malaisie péninsulaire
 Eublemma roseoniveoides Holloway, 2009 Bornéo
 Eublemma rosibrunnea Holloway, 2009 Bornéo, Malaisie péninsulaire
-Eublemma rosina Hübner, [1803]
+Eublemma rosina Hübner, 
 Eublemma rosinans Lucas, 1938 Maroc
 Eublemma rubricilia Hampson, 1902 Sikkim, Bhoutan, Singapour
 Eublemma rubripuncta Hampson, 1902
@@ -979,14 +997,14 @@
 Eublemma staudingeri (Wallengren, 1875) Afrique du Sud, Zimbabwe, Yémen, Erythrée, Nigéria
 Eublemma stenodea Hacker, 2019 Namibie
 Eublemma stictilinea Hampson, 1910
-Eublemma straminea (Staudinger, [1892]) Grèce, Turquie, Liban, Israël, Irak, Iran, Arabie, Sinaï
+Eublemma straminea (Staudinger, ) Grèce, Turquie, Liban, Israël, Irak, Iran, Arabie, Sinaï
 Eublemma striantula (Wiltshire, 1961) Afghanistan
 Eublemma stygiochroa Hampson, 1910
 Eublemma subflavipes Hacker &amp; Saldaitis, 2010 Yémen
 Eublemma subrufula Rothschild, 1924 Madagascar
 Eublemma subvenata (Staudinger, 1892) Tunisie, Algérie, Israël, Jordanie, Arabie
-Eublemma suppuncta (Staudinger, [1892]) Turquie
-Eublemma suppura (Staudinger, [1892]) Turquie, Liban
+Eublemma suppuncta (Staudinger, ) Turquie
+Eublemma suppura (Staudinger, ) Turquie, Liban
 Eublemma sydolia Schaus, 1940 Porto Rico
 Eublemma symphona Prout, 1928
 Eublemma syrtensis Hampson, 1910 Algérie
@@ -1023,7 +1041,7 @@
 Eublemma virginalis (Oberthür, 1881) Algérie
 Eublemma viridis (Staudinger, 1888)
 Eublemma viridula (Guenée, 1841) Europe du sud
-Eublemma wagneri (Herrich-Schäffer, [1851]) Turquie
+Eublemma wagneri (Herrich-Schäffer, ) Turquie
 Eublemma willotti Holloway, 2009 Bornéo
 Eublemma wiltshirei Fibiger &amp; Hacker, 2002 Iran, Yémen
 Eublemma wolframmeyi Hacker, 2019 Namibie
